--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>NOTAS</t>
   </si>
@@ -278,22 +278,6 @@
     <t>Lopez Rodriguez Michael Enrique</t>
   </si>
   <si>
-    <t>https://github.com/Maike94/MGAD-SERGIO-ARBOLEDA-PROGRAMACION.git</t>
-  </si>
-  <si>
-    <t>1.
-Tu código está bastante bien estructurado y parece correcto, pero hay un pequeño detalle en la función simularvuelo(). En tu comentario mencionas que el pasajero 100 no entra en el ciclo, pero eso no es del todo correcto, ya que el ciclo recorre los pasajeros desde el 1 hasta el 98. Sin embargo, el pasajero 100 es el último, por lo que no entra en el ciclo y se debe verificar fuera de él.
-No entregaste el punto 2 del taller
-2.
-Tu código parece estar correctamente estructurado y hace lo que esperas: define una baraja de 52 cartas, la muestra en su orden original, la baraja aleatoriamente y luego muestra las cartas mezcladas.
-3.
-Las consultas SQL estan perfectas
-4.
-Se calcula correctamente el Beta utilizando numpy
-5.
-Las graficas individuales, combinada y la limpieza de datos estan perfectas</t>
-  </si>
-  <si>
     <t>Pardo Ruiz Johan Sebastian</t>
   </si>
   <si>
@@ -456,7 +440,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -575,6 +559,20 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -781,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -941,11 +939,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1266,7 +1316,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1851,30 +1901,30 @@
       <c r="D14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="20">
-        <v>2.5</v>
+      <c r="E14" s="55">
+        <v>4.5</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="55">
         <v>5</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="55">
+        <v>4.5</v>
+      </c>
+      <c r="H14" s="55">
         <v>5</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="55">
         <v>5</v>
       </c>
-      <c r="I14" s="20">
-        <v>5</v>
+      <c r="J14" s="56">
+        <f t="shared" ref="J14" si="1">(E14+F14+G14+H14+I14)/5</f>
+        <v>4.8</v>
       </c>
-      <c r="J14" s="17">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
+      <c r="K14" s="57" t="s">
+        <v>26</v>
       </c>
-      <c r="K14" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>38</v>
+      <c r="L14" s="58" t="s">
+        <v>27</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1904,7 +1954,7 @@
         <v>1000287668</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="20">
         <v>4.5</v>
@@ -1926,10 +1976,10 @@
         <v>4.8</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1959,7 +2009,7 @@
         <v>1018486973</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="25">
         <v>4.5</v>
@@ -1981,10 +2031,10 @@
         <v>4.8</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2014,7 +2064,7 @@
         <v>1018437179</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="20">
         <v>4.5</v>
@@ -2030,10 +2080,10 @@
         <v>1.4</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2057,13 +2107,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="14">
         <v>1000377782</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="20">
         <v>4.5</v>
@@ -2085,10 +2135,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2112,13 +2162,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="14">
         <v>1049634074</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="20">
         <v>4.5</v>
@@ -2140,10 +2190,10 @@
         <v>4.5600000000000005</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -31596,31 +31646,58 @@
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:I19">
+  <conditionalFormatting sqref="E9:I13 E15:I19">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+      <formula>4.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:I13 E15:I19">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="between">
+      <formula>4.5</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:I13 E15:I19">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
+      <formula>4</formula>
+      <formula>3.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:I13 E15:I19">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
+      <formula>3.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:I13 E15:I19">
+    <cfRule type="containsBlanks" dxfId="5" priority="10">
+      <formula>LEN(TRIM(E9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:I14">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>4.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:I19">
+  <conditionalFormatting sqref="E14:I14">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>4.5</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:I19">
+  <conditionalFormatting sqref="E14:I14">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>4</formula>
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:I19">
+  <conditionalFormatting sqref="E14:I14">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:I19">
+  <conditionalFormatting sqref="E14:I14">
     <cfRule type="containsBlanks" dxfId="0" priority="5">
-      <formula>LEN(TRIM(E9))=0</formula>
+      <formula>LEN(TRIM(E14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -31628,20 +31705,20 @@
     <hyperlink ref="K10" r:id="rId2"/>
     <hyperlink ref="K12" r:id="rId3"/>
     <hyperlink ref="K13" r:id="rId4"/>
-    <hyperlink ref="K14" r:id="rId5"/>
-    <hyperlink ref="K15" r:id="rId6"/>
-    <hyperlink ref="K16" r:id="rId7"/>
-    <hyperlink ref="K17" r:id="rId8"/>
-    <hyperlink ref="K18" r:id="rId9"/>
-    <hyperlink ref="K19" r:id="rId10"/>
+    <hyperlink ref="K15" r:id="rId5"/>
+    <hyperlink ref="K16" r:id="rId6"/>
+    <hyperlink ref="K17" r:id="rId7"/>
+    <hyperlink ref="K18" r:id="rId8"/>
+    <hyperlink ref="K19" r:id="rId9"/>
+    <hyperlink ref="K14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <drawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -31668,7 +31745,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="54"/>
       <c r="F1" s="36"/>
@@ -31765,7 +31842,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="2"/>
@@ -31863,10 +31940,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="43">
         <v>45671</v>
@@ -31927,10 +32004,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="47"/>
       <c r="H8" s="48"/>
@@ -31967,10 +32044,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
@@ -32007,10 +32084,10 @@
         <v>28</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="47"/>
       <c r="H10" s="48"/>
@@ -32047,10 +32124,10 @@
         <v>30</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="47"/>
       <c r="H11" s="48"/>
@@ -32087,10 +32164,10 @@
         <v>33</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" s="48"/>
@@ -32127,10 +32204,10 @@
         <v>36</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="47"/>
       <c r="H13" s="48"/>
@@ -32164,13 +32241,13 @@
         <v>1000287668</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
@@ -32204,13 +32281,13 @@
         <v>1018486973</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="47"/>
       <c r="H15" s="48"/>
@@ -32244,13 +32321,13 @@
         <v>1018437179</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="48"/>
@@ -32278,19 +32355,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="14">
         <v>1000377782</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
